--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C93AF5-9722-4978-9A16-75F2147B0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BFD7D-4531-4A93-9161-0EBC1698F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
     <sheet name="Steel_Wool_2025" sheetId="2" r:id="rId2"/>
-    <sheet name="Steel_Wool_All" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel_Wool_All_Time" sheetId="3" r:id="rId3"/>
     <sheet name="Offgass" sheetId="4" r:id="rId4"/>
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
@@ -4590,7 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8E974-10EF-4477-AE67-D2A552CAAEF1}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5158,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7E831-A965-464A-A667-022BC387BC61}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BFD7D-4531-4A93-9161-0EBC1698F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791D38C-DD20-4B0B-807E-4B44C1CCC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
     <sheet name="Steel_Wool_2025" sheetId="2" r:id="rId2"/>
     <sheet name="Steel_Wool_All_Time" sheetId="3" r:id="rId3"/>
-    <sheet name="Offgass" sheetId="4" r:id="rId4"/>
+    <sheet name="Off-gas" sheetId="4" r:id="rId4"/>
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -5158,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7E831-A965-464A-A667-022BC387BC61}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -6782,7 +6782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3F26A-84B6-4E8F-9AE0-8190D8DAD5BA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791D38C-DD20-4B0B-807E-4B44C1CCC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEDEEF-8E18-4745-BD2B-7D57EF0DE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
     <sheet name="Steel_Wool_2025" sheetId="2" r:id="rId2"/>
-    <sheet name="Steel_Wool_All_Time" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel_Wool_All" sheetId="3" r:id="rId3"/>
     <sheet name="Off-gas" sheetId="4" r:id="rId4"/>
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
@@ -5158,9 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7E831-A965-464A-A667-022BC387BC61}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6782,7 +6780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3F26A-84B6-4E8F-9AE0-8190D8DAD5BA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEDEEF-8E18-4745-BD2B-7D57EF0DE02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFF1C6D-9216-4C3B-85C2-2DD49C096CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
     <sheet name="Steel_Wool_2025" sheetId="2" r:id="rId2"/>
-    <sheet name="Steel_Wool_All" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel_Wool_All_Time" sheetId="3" r:id="rId3"/>
     <sheet name="Off-gas" sheetId="4" r:id="rId4"/>
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFF1C6D-9216-4C3B-85C2-2DD49C096CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F224B7B4-8A43-4B55-A638-9945379A7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Off-gas" sheetId="4" r:id="rId4"/>
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
+    <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1234">
   <si>
     <t>DateTime</t>
   </si>
@@ -3721,13 +3722,19 @@
   </si>
   <si>
     <t>%_Fe</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>λ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3867,6 +3874,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4210,9 +4223,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5158,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7E831-A965-464A-A667-022BC387BC61}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -63179,4 +63193,3075 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6B7015-AEA3-4C2F-930F-E08028209ED1}">
+  <dimension ref="A1:B382"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>401</v>
+      </c>
+      <c r="B3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>402</v>
+      </c>
+      <c r="B4">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>403</v>
+      </c>
+      <c r="B5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>404</v>
+      </c>
+      <c r="B6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>405</v>
+      </c>
+      <c r="B7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>406</v>
+      </c>
+      <c r="B8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>407</v>
+      </c>
+      <c r="B9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>408</v>
+      </c>
+      <c r="B10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>409</v>
+      </c>
+      <c r="B11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>410</v>
+      </c>
+      <c r="B12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>411</v>
+      </c>
+      <c r="B13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>412</v>
+      </c>
+      <c r="B14">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>413</v>
+      </c>
+      <c r="B15">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>414</v>
+      </c>
+      <c r="B16">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>415</v>
+      </c>
+      <c r="B17">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>416</v>
+      </c>
+      <c r="B18">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>417</v>
+      </c>
+      <c r="B19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>418</v>
+      </c>
+      <c r="B20">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>419</v>
+      </c>
+      <c r="B21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>420</v>
+      </c>
+      <c r="B22">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>421</v>
+      </c>
+      <c r="B23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>422</v>
+      </c>
+      <c r="B24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>423</v>
+      </c>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>424</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>425</v>
+      </c>
+      <c r="B27">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>426</v>
+      </c>
+      <c r="B28">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>427</v>
+      </c>
+      <c r="B29">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>428</v>
+      </c>
+      <c r="B30">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>429</v>
+      </c>
+      <c r="B31">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>430</v>
+      </c>
+      <c r="B32">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>431</v>
+      </c>
+      <c r="B33">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>432</v>
+      </c>
+      <c r="B34">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>433</v>
+      </c>
+      <c r="B35">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>434</v>
+      </c>
+      <c r="B36">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>435</v>
+      </c>
+      <c r="B37">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>436</v>
+      </c>
+      <c r="B38">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>437</v>
+      </c>
+      <c r="B39">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>438</v>
+      </c>
+      <c r="B40">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>439</v>
+      </c>
+      <c r="B41">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>440</v>
+      </c>
+      <c r="B42">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>441</v>
+      </c>
+      <c r="B43">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>442</v>
+      </c>
+      <c r="B44">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>443</v>
+      </c>
+      <c r="B45">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>444</v>
+      </c>
+      <c r="B46">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>445</v>
+      </c>
+      <c r="B47">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>446</v>
+      </c>
+      <c r="B48">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>447</v>
+      </c>
+      <c r="B49">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>448</v>
+      </c>
+      <c r="B50">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>449</v>
+      </c>
+      <c r="B51">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>450</v>
+      </c>
+      <c r="B52">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>451</v>
+      </c>
+      <c r="B53">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>452</v>
+      </c>
+      <c r="B54">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>453</v>
+      </c>
+      <c r="B55">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>454</v>
+      </c>
+      <c r="B56">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>455</v>
+      </c>
+      <c r="B57">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>456</v>
+      </c>
+      <c r="B58">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>457</v>
+      </c>
+      <c r="B59">
+        <v>-6.3E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>458</v>
+      </c>
+      <c r="B60">
+        <v>-6.2E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>459</v>
+      </c>
+      <c r="B61">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>460</v>
+      </c>
+      <c r="B62">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>461</v>
+      </c>
+      <c r="B63">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>462</v>
+      </c>
+      <c r="B64">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>463</v>
+      </c>
+      <c r="B65">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>464</v>
+      </c>
+      <c r="B66">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>465</v>
+      </c>
+      <c r="B67">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>466</v>
+      </c>
+      <c r="B68">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>467</v>
+      </c>
+      <c r="B69">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>468</v>
+      </c>
+      <c r="B70">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>469</v>
+      </c>
+      <c r="B71">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>470</v>
+      </c>
+      <c r="B72">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>471</v>
+      </c>
+      <c r="B73">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>472</v>
+      </c>
+      <c r="B74">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>473</v>
+      </c>
+      <c r="B75">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>474</v>
+      </c>
+      <c r="B76">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>475</v>
+      </c>
+      <c r="B77">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>476</v>
+      </c>
+      <c r="B78">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>477</v>
+      </c>
+      <c r="B79">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>478</v>
+      </c>
+      <c r="B80">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>479</v>
+      </c>
+      <c r="B81">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>480</v>
+      </c>
+      <c r="B82">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>481</v>
+      </c>
+      <c r="B83">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>482</v>
+      </c>
+      <c r="B84">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>483</v>
+      </c>
+      <c r="B85">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>484</v>
+      </c>
+      <c r="B86">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>485</v>
+      </c>
+      <c r="B87">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>486</v>
+      </c>
+      <c r="B88">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>487</v>
+      </c>
+      <c r="B89">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>488</v>
+      </c>
+      <c r="B90">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>489</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>490</v>
+      </c>
+      <c r="B92">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>491</v>
+      </c>
+      <c r="B93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>492</v>
+      </c>
+      <c r="B94">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>493</v>
+      </c>
+      <c r="B95">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>494</v>
+      </c>
+      <c r="B96">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>495</v>
+      </c>
+      <c r="B97">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>496</v>
+      </c>
+      <c r="B98">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>497</v>
+      </c>
+      <c r="B99">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>498</v>
+      </c>
+      <c r="B100">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>499</v>
+      </c>
+      <c r="B101">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>500</v>
+      </c>
+      <c r="B102">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>501</v>
+      </c>
+      <c r="B103">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>502</v>
+      </c>
+      <c r="B104">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>503</v>
+      </c>
+      <c r="B105">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>504</v>
+      </c>
+      <c r="B106">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>505</v>
+      </c>
+      <c r="B107">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>506</v>
+      </c>
+      <c r="B108">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>507</v>
+      </c>
+      <c r="B109">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>508</v>
+      </c>
+      <c r="B110">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>509</v>
+      </c>
+      <c r="B111">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>510</v>
+      </c>
+      <c r="B112">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>511</v>
+      </c>
+      <c r="B113">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>512</v>
+      </c>
+      <c r="B114">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>513</v>
+      </c>
+      <c r="B115">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>514</v>
+      </c>
+      <c r="B116">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>515</v>
+      </c>
+      <c r="B117">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>516</v>
+      </c>
+      <c r="B118">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>517</v>
+      </c>
+      <c r="B119">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>518</v>
+      </c>
+      <c r="B120">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>519</v>
+      </c>
+      <c r="B121">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>520</v>
+      </c>
+      <c r="B122">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>521</v>
+      </c>
+      <c r="B123">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>522</v>
+      </c>
+      <c r="B124">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>523</v>
+      </c>
+      <c r="B125">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>524</v>
+      </c>
+      <c r="B126">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>525</v>
+      </c>
+      <c r="B127">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>526</v>
+      </c>
+      <c r="B128">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>527</v>
+      </c>
+      <c r="B129">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>528</v>
+      </c>
+      <c r="B130">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>529</v>
+      </c>
+      <c r="B131">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>530</v>
+      </c>
+      <c r="B132">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>531</v>
+      </c>
+      <c r="B133">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>532</v>
+      </c>
+      <c r="B134">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>533</v>
+      </c>
+      <c r="B135">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>534</v>
+      </c>
+      <c r="B136">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>535</v>
+      </c>
+      <c r="B137">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>536</v>
+      </c>
+      <c r="B138">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>537</v>
+      </c>
+      <c r="B139">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>538</v>
+      </c>
+      <c r="B140">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>539</v>
+      </c>
+      <c r="B141">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>540</v>
+      </c>
+      <c r="B142">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>541</v>
+      </c>
+      <c r="B143">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>542</v>
+      </c>
+      <c r="B144">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>543</v>
+      </c>
+      <c r="B145">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>544</v>
+      </c>
+      <c r="B146">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>545</v>
+      </c>
+      <c r="B147">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>546</v>
+      </c>
+      <c r="B148">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>547</v>
+      </c>
+      <c r="B149">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>548</v>
+      </c>
+      <c r="B150">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>549</v>
+      </c>
+      <c r="B151">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>550</v>
+      </c>
+      <c r="B152">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>551</v>
+      </c>
+      <c r="B153">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>552</v>
+      </c>
+      <c r="B154">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>553</v>
+      </c>
+      <c r="B155">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>554</v>
+      </c>
+      <c r="B156">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>555</v>
+      </c>
+      <c r="B157">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>556</v>
+      </c>
+      <c r="B158">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>557</v>
+      </c>
+      <c r="B159">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>558</v>
+      </c>
+      <c r="B160">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>559</v>
+      </c>
+      <c r="B161">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>560</v>
+      </c>
+      <c r="B162">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>561</v>
+      </c>
+      <c r="B163">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>562</v>
+      </c>
+      <c r="B164">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>563</v>
+      </c>
+      <c r="B165">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>564</v>
+      </c>
+      <c r="B166">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>565</v>
+      </c>
+      <c r="B167">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>566</v>
+      </c>
+      <c r="B168">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>567</v>
+      </c>
+      <c r="B169">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>568</v>
+      </c>
+      <c r="B170">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>569</v>
+      </c>
+      <c r="B171">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>570</v>
+      </c>
+      <c r="B172">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>571</v>
+      </c>
+      <c r="B173">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>572</v>
+      </c>
+      <c r="B174">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>573</v>
+      </c>
+      <c r="B175">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>574</v>
+      </c>
+      <c r="B176">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>575</v>
+      </c>
+      <c r="B177">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>576</v>
+      </c>
+      <c r="B178">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>577</v>
+      </c>
+      <c r="B179">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>578</v>
+      </c>
+      <c r="B180">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>579</v>
+      </c>
+      <c r="B181">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>580</v>
+      </c>
+      <c r="B182">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>581</v>
+      </c>
+      <c r="B183">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>582</v>
+      </c>
+      <c r="B184">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>583</v>
+      </c>
+      <c r="B185">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>584</v>
+      </c>
+      <c r="B186">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>585</v>
+      </c>
+      <c r="B187">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>586</v>
+      </c>
+      <c r="B188">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>587</v>
+      </c>
+      <c r="B189">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>588</v>
+      </c>
+      <c r="B190">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>589</v>
+      </c>
+      <c r="B191">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>590</v>
+      </c>
+      <c r="B192">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>591</v>
+      </c>
+      <c r="B193">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>592</v>
+      </c>
+      <c r="B194">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>593</v>
+      </c>
+      <c r="B195">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>594</v>
+      </c>
+      <c r="B196">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>595</v>
+      </c>
+      <c r="B197">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>596</v>
+      </c>
+      <c r="B198">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>597</v>
+      </c>
+      <c r="B199">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>598</v>
+      </c>
+      <c r="B200">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>599</v>
+      </c>
+      <c r="B201">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>600</v>
+      </c>
+      <c r="B202">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>601</v>
+      </c>
+      <c r="B203">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>602</v>
+      </c>
+      <c r="B204">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>603</v>
+      </c>
+      <c r="B205">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>604</v>
+      </c>
+      <c r="B206">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>605</v>
+      </c>
+      <c r="B207">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>606</v>
+      </c>
+      <c r="B208">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>607</v>
+      </c>
+      <c r="B209">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>608</v>
+      </c>
+      <c r="B210">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>609</v>
+      </c>
+      <c r="B211">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>610</v>
+      </c>
+      <c r="B212">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>611</v>
+      </c>
+      <c r="B213">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>612</v>
+      </c>
+      <c r="B214">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>613</v>
+      </c>
+      <c r="B215">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>614</v>
+      </c>
+      <c r="B216">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>615</v>
+      </c>
+      <c r="B217">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>616</v>
+      </c>
+      <c r="B218">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>617</v>
+      </c>
+      <c r="B219">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>618</v>
+      </c>
+      <c r="B220">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>619</v>
+      </c>
+      <c r="B221">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>620</v>
+      </c>
+      <c r="B222">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>621</v>
+      </c>
+      <c r="B223">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>622</v>
+      </c>
+      <c r="B224">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>623</v>
+      </c>
+      <c r="B225">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>624</v>
+      </c>
+      <c r="B226">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>625</v>
+      </c>
+      <c r="B227">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>626</v>
+      </c>
+      <c r="B228">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>627</v>
+      </c>
+      <c r="B229">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>628</v>
+      </c>
+      <c r="B230">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>629</v>
+      </c>
+      <c r="B231">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>630</v>
+      </c>
+      <c r="B232">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>631</v>
+      </c>
+      <c r="B233">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>632</v>
+      </c>
+      <c r="B234">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>633</v>
+      </c>
+      <c r="B235">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>634</v>
+      </c>
+      <c r="B236">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>635</v>
+      </c>
+      <c r="B237">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>636</v>
+      </c>
+      <c r="B238">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>637</v>
+      </c>
+      <c r="B239">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>638</v>
+      </c>
+      <c r="B240">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>639</v>
+      </c>
+      <c r="B241">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>640</v>
+      </c>
+      <c r="B242">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>641</v>
+      </c>
+      <c r="B243">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>642</v>
+      </c>
+      <c r="B244">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>643</v>
+      </c>
+      <c r="B245">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>644</v>
+      </c>
+      <c r="B246">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>645</v>
+      </c>
+      <c r="B247">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>646</v>
+      </c>
+      <c r="B248">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>647</v>
+      </c>
+      <c r="B249">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>648</v>
+      </c>
+      <c r="B250">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>649</v>
+      </c>
+      <c r="B251">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>650</v>
+      </c>
+      <c r="B252">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>651</v>
+      </c>
+      <c r="B253">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>652</v>
+      </c>
+      <c r="B254">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>653</v>
+      </c>
+      <c r="B255">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>654</v>
+      </c>
+      <c r="B256">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>655</v>
+      </c>
+      <c r="B257">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>656</v>
+      </c>
+      <c r="B258">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>657</v>
+      </c>
+      <c r="B259">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>658</v>
+      </c>
+      <c r="B260">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>659</v>
+      </c>
+      <c r="B261">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>660</v>
+      </c>
+      <c r="B262">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>661</v>
+      </c>
+      <c r="B263">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>662</v>
+      </c>
+      <c r="B264">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>663</v>
+      </c>
+      <c r="B265">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>664</v>
+      </c>
+      <c r="B266">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>665</v>
+      </c>
+      <c r="B267">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>666</v>
+      </c>
+      <c r="B268">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>667</v>
+      </c>
+      <c r="B269">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>668</v>
+      </c>
+      <c r="B270">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>669</v>
+      </c>
+      <c r="B271">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>670</v>
+      </c>
+      <c r="B272">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>671</v>
+      </c>
+      <c r="B273">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>672</v>
+      </c>
+      <c r="B274">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>673</v>
+      </c>
+      <c r="B275">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>674</v>
+      </c>
+      <c r="B276">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>675</v>
+      </c>
+      <c r="B277">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>676</v>
+      </c>
+      <c r="B278">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>677</v>
+      </c>
+      <c r="B279">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>678</v>
+      </c>
+      <c r="B280">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>679</v>
+      </c>
+      <c r="B281">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>680</v>
+      </c>
+      <c r="B282">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>681</v>
+      </c>
+      <c r="B283">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>682</v>
+      </c>
+      <c r="B284">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>683</v>
+      </c>
+      <c r="B285">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>684</v>
+      </c>
+      <c r="B286">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>685</v>
+      </c>
+      <c r="B287">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>686</v>
+      </c>
+      <c r="B288">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>687</v>
+      </c>
+      <c r="B289">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>688</v>
+      </c>
+      <c r="B290">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>689</v>
+      </c>
+      <c r="B291">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>690</v>
+      </c>
+      <c r="B292">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>691</v>
+      </c>
+      <c r="B293">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>692</v>
+      </c>
+      <c r="B294">
+        <v>-6.3E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>693</v>
+      </c>
+      <c r="B295">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>694</v>
+      </c>
+      <c r="B296">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>695</v>
+      </c>
+      <c r="B297">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>696</v>
+      </c>
+      <c r="B298">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>697</v>
+      </c>
+      <c r="B299">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>698</v>
+      </c>
+      <c r="B300">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>699</v>
+      </c>
+      <c r="B301">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>700</v>
+      </c>
+      <c r="B302">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>701</v>
+      </c>
+      <c r="B303">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>702</v>
+      </c>
+      <c r="B304">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>703</v>
+      </c>
+      <c r="B305">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>704</v>
+      </c>
+      <c r="B306">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>705</v>
+      </c>
+      <c r="B307">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>706</v>
+      </c>
+      <c r="B308">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>707</v>
+      </c>
+      <c r="B309">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>708</v>
+      </c>
+      <c r="B310">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>709</v>
+      </c>
+      <c r="B311">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>710</v>
+      </c>
+      <c r="B312">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>711</v>
+      </c>
+      <c r="B313">
+        <v>-7.8E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>712</v>
+      </c>
+      <c r="B314">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>713</v>
+      </c>
+      <c r="B315">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>714</v>
+      </c>
+      <c r="B316">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>715</v>
+      </c>
+      <c r="B317">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>716</v>
+      </c>
+      <c r="B318">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>717</v>
+      </c>
+      <c r="B319">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>718</v>
+      </c>
+      <c r="B320">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>719</v>
+      </c>
+      <c r="B321">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>720</v>
+      </c>
+      <c r="B322">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>721</v>
+      </c>
+      <c r="B323">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>722</v>
+      </c>
+      <c r="B324">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>723</v>
+      </c>
+      <c r="B325">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>724</v>
+      </c>
+      <c r="B326">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>725</v>
+      </c>
+      <c r="B327">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>726</v>
+      </c>
+      <c r="B328">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>727</v>
+      </c>
+      <c r="B329">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>728</v>
+      </c>
+      <c r="B330">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>729</v>
+      </c>
+      <c r="B331">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>730</v>
+      </c>
+      <c r="B332">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>731</v>
+      </c>
+      <c r="B333">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>732</v>
+      </c>
+      <c r="B334">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>733</v>
+      </c>
+      <c r="B335">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>734</v>
+      </c>
+      <c r="B336">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>735</v>
+      </c>
+      <c r="B337">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>736</v>
+      </c>
+      <c r="B338">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>737</v>
+      </c>
+      <c r="B339">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>738</v>
+      </c>
+      <c r="B340">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>739</v>
+      </c>
+      <c r="B341">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>740</v>
+      </c>
+      <c r="B342">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>741</v>
+      </c>
+      <c r="B343">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>742</v>
+      </c>
+      <c r="B344">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>743</v>
+      </c>
+      <c r="B345">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>744</v>
+      </c>
+      <c r="B346">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>745</v>
+      </c>
+      <c r="B347">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>746</v>
+      </c>
+      <c r="B348">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>747</v>
+      </c>
+      <c r="B349">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>748</v>
+      </c>
+      <c r="B350">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>749</v>
+      </c>
+      <c r="B351">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>750</v>
+      </c>
+      <c r="B352">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>751</v>
+      </c>
+      <c r="B353">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>752</v>
+      </c>
+      <c r="B354">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>753</v>
+      </c>
+      <c r="B355">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>754</v>
+      </c>
+      <c r="B356">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>755</v>
+      </c>
+      <c r="B357">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>756</v>
+      </c>
+      <c r="B358">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>757</v>
+      </c>
+      <c r="B359">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>758</v>
+      </c>
+      <c r="B360">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>759</v>
+      </c>
+      <c r="B361">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>760</v>
+      </c>
+      <c r="B362">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>761</v>
+      </c>
+      <c r="B363">
+        <v>-7.8E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>762</v>
+      </c>
+      <c r="B364">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>763</v>
+      </c>
+      <c r="B365">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>764</v>
+      </c>
+      <c r="B366">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>765</v>
+      </c>
+      <c r="B367">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>766</v>
+      </c>
+      <c r="B368">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>767</v>
+      </c>
+      <c r="B369">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>768</v>
+      </c>
+      <c r="B370">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>769</v>
+      </c>
+      <c r="B371">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>770</v>
+      </c>
+      <c r="B372">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>771</v>
+      </c>
+      <c r="B373">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>772</v>
+      </c>
+      <c r="B374">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>773</v>
+      </c>
+      <c r="B375">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>774</v>
+      </c>
+      <c r="B376">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>775</v>
+      </c>
+      <c r="B377">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>776</v>
+      </c>
+      <c r="B378">
+        <v>-9.4E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>777</v>
+      </c>
+      <c r="B379">
+        <v>-9.4E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>778</v>
+      </c>
+      <c r="B380">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>779</v>
+      </c>
+      <c r="B381">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>780</v>
+      </c>
+      <c r="B382">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F224B7B4-8A43-4B55-A638-9945379A7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC55EC2-9428-4A9B-9A37-F173AC4E759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -3724,10 +3724,10 @@
     <t>%_Fe</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>λ</t>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>Absorption</t>
   </si>
 </sst>
 </file>
@@ -63200,17 +63200,21 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1" t="s">
         <v>1233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC55EC2-9428-4A9B-9A37-F173AC4E759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5DFAB5-590B-4CFF-B83A-C7AFC64EF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Water_Data" sheetId="7" r:id="rId5"/>
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
     <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
+    <sheet name="Curve" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1236">
   <si>
     <t>DateTime</t>
   </si>
@@ -3728,6 +3729,12 @@
   </si>
   <si>
     <t>Absorption</t>
+  </si>
+  <si>
+    <t>Optical density at 600 nm</t>
+  </si>
+  <si>
+    <t>Biomass concentraion g/L</t>
   </si>
 </sst>
 </file>
@@ -4223,10 +4230,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -63199,7 +63207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6B7015-AEA3-4C2F-930F-E08028209ED1}">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -66268,4 +66276,191 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF5910-FD6D-44F7-A9D7-54C647037242}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5DFAB5-590B-4CFF-B83A-C7AFC64EF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE0706-AAE1-45E7-8F81-AFB7D13FAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -3731,10 +3731,10 @@
     <t>Absorption</t>
   </si>
   <si>
-    <t>Optical density at 600 nm</t>
-  </si>
-  <si>
-    <t>Biomass concentraion g/L</t>
+    <t>Concentraion</t>
+  </si>
+  <si>
+    <t>OD</t>
   </si>
 </sst>
 </file>
@@ -66283,7 +66283,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66294,10 +66294,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE0706-AAE1-45E7-8F81-AFB7D13FAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ED490-40A3-4F40-8E1F-87A61853B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -3731,10 +3731,10 @@
     <t>Absorption</t>
   </si>
   <si>
-    <t>Concentraion</t>
-  </si>
-  <si>
     <t>OD</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -66283,7 +66283,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66294,10 +66294,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1235</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ED490-40A3-4F40-8E1F-87A61853B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B216F-9236-46D9-BBD8-92D80FF10655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -3731,10 +3731,10 @@
     <t>Absorption</t>
   </si>
   <si>
-    <t>OD</t>
-  </si>
-  <si>
     <t>Concentration</t>
+  </si>
+  <si>
+    <t>OptDen</t>
   </si>
 </sst>
 </file>
@@ -66283,7 +66283,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66294,10 +66294,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B216F-9236-46D9-BBD8-92D80FF10655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8803A214-1BD8-43AF-B21A-665C7AAB5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Ascorbic_Acid" sheetId="5" r:id="rId6"/>
     <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
     <sheet name="Curve" sheetId="9" r:id="rId8"/>
+    <sheet name="Titration" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1237">
   <si>
     <t>DateTime</t>
   </si>
@@ -3735,6 +3736,9 @@
   </si>
   <si>
     <t>OptDen</t>
+  </si>
+  <si>
+    <t>Vol(NaOH)</t>
   </si>
 </sst>
 </file>
@@ -66282,7 +66286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF5910-FD6D-44F7-A9D7-54C647037242}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -66463,4 +66467,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773E04A-F6BD-4F61-B906-DFE36AE7F555}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13.5</v>
+      </c>
+      <c r="B12">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14.1</v>
+      </c>
+      <c r="B14">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14.2</v>
+      </c>
+      <c r="B15">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14.3</v>
+      </c>
+      <c r="B16">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14.4</v>
+      </c>
+      <c r="B17">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14.5</v>
+      </c>
+      <c r="B18">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14.6</v>
+      </c>
+      <c r="B19">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14.7</v>
+      </c>
+      <c r="B20">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14.8</v>
+      </c>
+      <c r="B21">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14.9</v>
+      </c>
+      <c r="B22">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>15.1</v>
+      </c>
+      <c r="B24">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15.2</v>
+      </c>
+      <c r="B25">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15.3</v>
+      </c>
+      <c r="B26">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15.5</v>
+      </c>
+      <c r="B27">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>11.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8803A214-1BD8-43AF-B21A-665C7AAB5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15A0FA-B5F7-467D-B1FC-FAE0B599CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
     <sheet name="Curve" sheetId="9" r:id="rId8"/>
     <sheet name="Titration" sheetId="10" r:id="rId9"/>
+    <sheet name="t" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1237">
   <si>
     <t>DateTime</t>
   </si>
@@ -5076,6 +5077,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
+  <dimension ref="C3:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13.5</v>
+      </c>
+      <c r="D14">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14.1</v>
+      </c>
+      <c r="D16">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>14.2</v>
+      </c>
+      <c r="D17">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>14.3</v>
+      </c>
+      <c r="D18">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>14.4</v>
+      </c>
+      <c r="D19">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>14.5</v>
+      </c>
+      <c r="D20">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>14.6</v>
+      </c>
+      <c r="D21">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>14.7</v>
+      </c>
+      <c r="D22">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>14.8</v>
+      </c>
+      <c r="D23">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>14.9</v>
+      </c>
+      <c r="D24">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>15.1</v>
+      </c>
+      <c r="D26">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>15.2</v>
+      </c>
+      <c r="D27">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>15.3</v>
+      </c>
+      <c r="D28">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>15.5</v>
+      </c>
+      <c r="D29">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>11.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A00E3-38EE-4449-AE2E-485A048213B4}">
   <dimension ref="A1:B11"/>
@@ -66473,7 +66729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773E04A-F6BD-4F61-B906-DFE36AE7F555}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15A0FA-B5F7-467D-B1FC-FAE0B599CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC8024-0728-432D-BB44-B0F5FD230031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -5079,251 +5079,251 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
-  <dimension ref="C3:D32"/>
+  <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1236</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10</v>
+      </c>
       <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>12</v>
+      </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>13</v>
+      </c>
       <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>13.5</v>
+      </c>
       <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>14</v>
+      </c>
       <c r="C14">
-        <v>13.5</v>
-      </c>
-      <c r="D14">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14.1</v>
+      </c>
       <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>14.2</v>
+      </c>
       <c r="C16">
-        <v>14.1</v>
-      </c>
-      <c r="D16">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>14.3</v>
+      </c>
       <c r="C17">
-        <v>14.2</v>
-      </c>
-      <c r="D17">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>14.4</v>
+      </c>
       <c r="C18">
-        <v>14.3</v>
-      </c>
-      <c r="D18">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>14.5</v>
+      </c>
       <c r="C19">
-        <v>14.4</v>
-      </c>
-      <c r="D19">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>14.6</v>
+      </c>
       <c r="C20">
-        <v>14.5</v>
-      </c>
-      <c r="D20">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>14.7</v>
+      </c>
       <c r="C21">
-        <v>14.6</v>
-      </c>
-      <c r="D21">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>14.8</v>
+      </c>
       <c r="C22">
-        <v>14.7</v>
-      </c>
-      <c r="D22">
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>14.9</v>
+      </c>
       <c r="C23">
-        <v>14.8</v>
-      </c>
-      <c r="D23">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>15</v>
+      </c>
       <c r="C24">
-        <v>14.9</v>
-      </c>
-      <c r="D24">
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>15.1</v>
+      </c>
       <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15.2</v>
+      </c>
       <c r="C26">
-        <v>15.1</v>
-      </c>
-      <c r="D26">
-        <v>9.94</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>15.3</v>
+      </c>
       <c r="C27">
-        <v>15.2</v>
-      </c>
-      <c r="D27">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>15.5</v>
+      </c>
       <c r="C28">
-        <v>15.3</v>
-      </c>
-      <c r="D28">
-        <v>10.210000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>16</v>
+      </c>
       <c r="C29">
-        <v>15.5</v>
-      </c>
-      <c r="D29">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>17</v>
+      </c>
       <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>19</v>
+      </c>
       <c r="C31">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>11.02</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>19</v>
-      </c>
-      <c r="D32">
         <v>11.41</v>
       </c>
     </row>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FC8024-0728-432D-BB44-B0F5FD230031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEEC03-6B29-4BD6-B1C4-D12F8335ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
     <sheet name="Curve" sheetId="9" r:id="rId8"/>
     <sheet name="Titration" sheetId="10" r:id="rId9"/>
-    <sheet name="t" sheetId="11" r:id="rId10"/>
+    <sheet name="Tittration_bad" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5079,251 +5079,242 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
-  <dimension ref="B2:C31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1236</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
         <v>3.99</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
       <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13.5</v>
+      </c>
       <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>13.5</v>
-      </c>
-      <c r="C13">
         <v>5.33</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14.1</v>
+      </c>
       <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14.2</v>
+      </c>
       <c r="B15">
-        <v>14.1</v>
-      </c>
-      <c r="C15">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14.3</v>
+      </c>
       <c r="B16">
-        <v>14.2</v>
-      </c>
-      <c r="C16">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14.4</v>
+      </c>
       <c r="B17">
-        <v>14.3</v>
-      </c>
-      <c r="C17">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14.5</v>
+      </c>
       <c r="B18">
-        <v>14.4</v>
-      </c>
-      <c r="C18">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14.6</v>
+      </c>
       <c r="B19">
-        <v>14.5</v>
-      </c>
-      <c r="C19">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14.7</v>
+      </c>
       <c r="B20">
-        <v>14.6</v>
-      </c>
-      <c r="C20">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14.8</v>
+      </c>
       <c r="B21">
-        <v>14.7</v>
-      </c>
-      <c r="C21">
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14.9</v>
+      </c>
       <c r="B22">
-        <v>14.8</v>
-      </c>
-      <c r="C22">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>14.9</v>
-      </c>
-      <c r="C23">
         <v>9.69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>15.1</v>
+      </c>
       <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15.2</v>
+      </c>
       <c r="B25">
-        <v>15.1</v>
-      </c>
-      <c r="C25">
-        <v>9.94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15.3</v>
+      </c>
       <c r="B26">
-        <v>15.2</v>
-      </c>
-      <c r="C26">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15.5</v>
+      </c>
       <c r="B27">
-        <v>15.3</v>
-      </c>
-      <c r="C27">
-        <v>10.210000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>16</v>
+      </c>
       <c r="B28">
-        <v>15.5</v>
-      </c>
-      <c r="C28">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>17</v>
+      </c>
       <c r="B29">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>19</v>
+      </c>
       <c r="B30">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>11.02</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>19</v>
-      </c>
-      <c r="C31">
         <v>11.41</v>
       </c>
     </row>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEEC03-6B29-4BD6-B1C4-D12F8335ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BAFA5-73A5-4712-985E-7550839DDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Spectrum" sheetId="8" r:id="rId7"/>
     <sheet name="Curve" sheetId="9" r:id="rId8"/>
     <sheet name="Titration" sheetId="10" r:id="rId9"/>
-    <sheet name="Tittration_bad" sheetId="11" r:id="rId10"/>
+    <sheet name="Titration_bad" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5081,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BAFA5-73A5-4712-985E-7550839DDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F451BC-5727-4743-BD62-31040833B0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -5079,10 +5079,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5139,182 +5139,215 @@
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4.46</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>4.82</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>5.09</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>5.33</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14</v>
+        <v>13.5</v>
+      </c>
+      <c r="B13">
+        <v>5.33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>5.85</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>6.11</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="B16">
-        <v>6.41</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="B17">
-        <v>6.81</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="B18">
-        <v>7.55</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="B19">
-        <v>8.73</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="B20">
-        <v>8.9700000000000006</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="B21">
-        <v>9.32</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="B22">
-        <v>9.69</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>15</v>
+        <v>14.8</v>
+      </c>
+      <c r="B23">
+        <v>9.32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="B24">
-        <v>9.94</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>10.119999999999999</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>10.210000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="B27">
-        <v>10.35</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="B28">
-        <v>10.68</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>17</v>
+        <v>15.3</v>
       </c>
       <c r="B29">
-        <v>11.02</v>
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>15.5</v>
+      </c>
+      <c r="B30">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>11.41</v>
       </c>
     </row>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F451BC-5727-4743-BD62-31040833B0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3361055-7381-412A-96B1-8B33CA3ECF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Curve" sheetId="9" r:id="rId8"/>
     <sheet name="Titration" sheetId="10" r:id="rId9"/>
     <sheet name="Titration_bad" sheetId="11" r:id="rId10"/>
+    <sheet name="vit_c" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1237">
   <si>
     <t>DateTime</t>
   </si>
@@ -5081,7 +5082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F620B1-FD01-4F66-A56F-AD30DF5BD183}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
@@ -5349,6 +5350,280 @@
       </c>
       <c r="B33">
         <v>11.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3175EB72-987D-4E96-9A85-BB887C9ADD4C}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.37</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.56</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.71</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.85</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.99</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.2</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.32</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.46</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.55</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4.82</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5.09</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5.33</v>
+      </c>
+      <c r="B14">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5.7</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5.85</v>
+      </c>
+      <c r="B16">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6.11</v>
+      </c>
+      <c r="B17">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6.41</v>
+      </c>
+      <c r="B18">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6.81</v>
+      </c>
+      <c r="B19">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7.55</v>
+      </c>
+      <c r="B20">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8.73</v>
+      </c>
+      <c r="B21">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="B22">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9.32</v>
+      </c>
+      <c r="B23">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9.69</v>
+      </c>
+      <c r="B24">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9.94</v>
+      </c>
+      <c r="B26">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B27">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="B28">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10.35</v>
+      </c>
+      <c r="B29">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10.68</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11.02</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11.41</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -63221,7 +63496,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3361055-7381-412A-96B1-8B33CA3ECF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E14B39-2A77-4C45-8E70-52CC6ED72D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1238">
   <si>
     <t>DateTime</t>
   </si>
@@ -3741,6 +3741,9 @@
   </si>
   <si>
     <t>Vol(NaOH)</t>
+  </si>
+  <si>
+    <t>HCl</t>
   </si>
 </sst>
 </file>
@@ -5362,7 +5365,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5375,7 +5378,7 @@
         <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/data_visualisation.xlsx
+++ b/data_visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\MBaP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E14B39-2A77-4C45-8E70-52CC6ED72D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5117439D-8BBA-4B03-9EED-AE797BE0A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{32A67FFA-15AE-4385-9876-2B3FB98F8D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature_2025" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Titration" sheetId="10" r:id="rId9"/>
     <sheet name="Titration_bad" sheetId="11" r:id="rId10"/>
     <sheet name="vit_c" sheetId="12" r:id="rId11"/>
+    <sheet name="temp_25" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1238">
   <si>
     <t>DateTime</t>
   </si>
@@ -4621,7 +4622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8E974-10EF-4477-AE67-D2A552CAAEF1}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5364,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3175EB72-987D-4E96-9A85-BB887C9ADD4C}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5627,6 +5630,472 @@
       </c>
       <c r="B32">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F853ACDF-DF94-485A-A263-689CECD00591}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>15.6</v>
+      </c>
+      <c r="D2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B3">
+        <v>2.1</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>14.9</v>
+      </c>
+      <c r="D4">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45934</v>
+      </c>
+      <c r="B5">
+        <v>8.4</v>
+      </c>
+      <c r="C5">
+        <v>12.8</v>
+      </c>
+      <c r="D5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C6">
+        <v>14.3</v>
+      </c>
+      <c r="D6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B7">
+        <v>8.6</v>
+      </c>
+      <c r="C7">
+        <v>15.7</v>
+      </c>
+      <c r="D7">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>14.7</v>
+      </c>
+      <c r="D8">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B9">
+        <v>9.9</v>
+      </c>
+      <c r="C9">
+        <v>15.9</v>
+      </c>
+      <c r="D9">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B10">
+        <v>5.9</v>
+      </c>
+      <c r="C10">
+        <v>14.5</v>
+      </c>
+      <c r="D10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B11">
+        <v>11.1</v>
+      </c>
+      <c r="C11">
+        <v>14.9</v>
+      </c>
+      <c r="D11">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B12">
+        <v>11.6</v>
+      </c>
+      <c r="C12">
+        <v>14.4</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B13">
+        <v>6.8</v>
+      </c>
+      <c r="C13">
+        <v>16.8</v>
+      </c>
+      <c r="D13">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>15.5</v>
+      </c>
+      <c r="D14">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B15">
+        <v>6.6</v>
+      </c>
+      <c r="C15">
+        <v>15.3</v>
+      </c>
+      <c r="D15">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>13.2</v>
+      </c>
+      <c r="D16">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B17">
+        <v>7.9</v>
+      </c>
+      <c r="C17">
+        <v>14.8</v>
+      </c>
+      <c r="D17">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>11.9</v>
+      </c>
+      <c r="D18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B19">
+        <v>-0.4</v>
+      </c>
+      <c r="C19">
+        <v>11.2</v>
+      </c>
+      <c r="D19">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B20">
+        <v>-0.5</v>
+      </c>
+      <c r="C20">
+        <v>10.6</v>
+      </c>
+      <c r="D20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B21">
+        <v>4.7</v>
+      </c>
+      <c r="C21">
+        <v>11.8</v>
+      </c>
+      <c r="D21">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B22">
+        <v>8.9</v>
+      </c>
+      <c r="C22">
+        <v>13.2</v>
+      </c>
+      <c r="D22">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B23">
+        <v>7.2</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B24">
+        <v>5.3</v>
+      </c>
+      <c r="C24">
+        <v>13.5</v>
+      </c>
+      <c r="D24">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C25">
+        <v>12.6</v>
+      </c>
+      <c r="D25">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B26">
+        <v>8.5</v>
+      </c>
+      <c r="C26">
+        <v>11.1</v>
+      </c>
+      <c r="D26">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B27">
+        <v>6.5</v>
+      </c>
+      <c r="C27">
+        <v>10.7</v>
+      </c>
+      <c r="D27">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B28">
+        <v>6.1</v>
+      </c>
+      <c r="C28">
+        <v>11.1</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B29">
+        <v>5.4</v>
+      </c>
+      <c r="C29">
+        <v>10.4</v>
+      </c>
+      <c r="D29">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C30">
+        <v>11.8</v>
+      </c>
+      <c r="D30">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B31">
+        <v>5.8</v>
+      </c>
+      <c r="C31">
+        <v>10.9</v>
+      </c>
+      <c r="D31">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B32">
+        <v>2.4</v>
+      </c>
+      <c r="C32">
+        <v>11.6</v>
+      </c>
+      <c r="D32">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
